--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H2">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N2">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P2">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q2">
-        <v>7.776194813477332</v>
+        <v>26.24923117432</v>
       </c>
       <c r="R2">
-        <v>69.98575332129599</v>
+        <v>236.24308056888</v>
       </c>
       <c r="S2">
-        <v>0.002387952876098402</v>
+        <v>0.006883125817227105</v>
       </c>
       <c r="T2">
-        <v>0.002387952876098403</v>
+        <v>0.006883125817227108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H3">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.897648</v>
       </c>
       <c r="O3">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P3">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q3">
-        <v>29.29198235591821</v>
+        <v>75.15812819042489</v>
       </c>
       <c r="R3">
-        <v>263.627841203264</v>
+        <v>676.423153713824</v>
       </c>
       <c r="S3">
-        <v>0.008995128747573071</v>
+        <v>0.01970811446196116</v>
       </c>
       <c r="T3">
-        <v>0.008995128747573073</v>
+        <v>0.01970811446196117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H4">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N4">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P4">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q4">
-        <v>11.85620727328756</v>
+        <v>16.75596518381622</v>
       </c>
       <c r="R4">
-        <v>106.705865459588</v>
+        <v>150.803686654346</v>
       </c>
       <c r="S4">
-        <v>0.003640863550485732</v>
+        <v>0.004393782651513096</v>
       </c>
       <c r="T4">
-        <v>0.003640863550485732</v>
+        <v>0.004393782651513098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H5">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N5">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P5">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q5">
-        <v>36.30439137827243</v>
+        <v>13.66131564697533</v>
       </c>
       <c r="R5">
-        <v>326.7395224044519</v>
+        <v>122.951840822778</v>
       </c>
       <c r="S5">
-        <v>0.01114853445498757</v>
+        <v>0.003582297470067539</v>
       </c>
       <c r="T5">
-        <v>0.01114853445498757</v>
+        <v>0.003582297470067541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H6">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N6">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O6">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P6">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q6">
-        <v>86.26167180553554</v>
+        <v>241.5469493025698</v>
       </c>
       <c r="R6">
-        <v>776.3550462498199</v>
+        <v>2173.922543723128</v>
       </c>
       <c r="S6">
-        <v>0.02648966650476336</v>
+        <v>0.0633389234060123</v>
       </c>
       <c r="T6">
-        <v>0.02648966650476336</v>
+        <v>0.06333892340601231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H7">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I7">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J7">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N7">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O7">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P7">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q7">
-        <v>9.716538891033332</v>
+        <v>14.43196797993133</v>
       </c>
       <c r="R7">
-        <v>87.4488500193</v>
+        <v>129.887711819382</v>
       </c>
       <c r="S7">
-        <v>0.002983803460061381</v>
+        <v>0.003784379463778091</v>
       </c>
       <c r="T7">
-        <v>0.002983803460061381</v>
+        <v>0.003784379463778092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N8">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P8">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q8">
-        <v>56.39156934248</v>
+        <v>74.18847513840001</v>
       </c>
       <c r="R8">
-        <v>507.52412408232</v>
+        <v>667.6962762456001</v>
       </c>
       <c r="S8">
-        <v>0.01731700573726504</v>
+        <v>0.01945385010229965</v>
       </c>
       <c r="T8">
-        <v>0.01731700573726504</v>
+        <v>0.01945385010229966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.897648</v>
       </c>
       <c r="O9">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P9">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q9">
         <v>212.4201995736533</v>
@@ -1013,10 +1013,10 @@
         <v>1911.78179616288</v>
       </c>
       <c r="S9">
-        <v>0.06523105949379784</v>
+        <v>0.05570124892710592</v>
       </c>
       <c r="T9">
-        <v>0.06523105949379786</v>
+        <v>0.05570124892710595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N10">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P10">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q10">
-        <v>85.97908753927335</v>
+        <v>47.35755871111334</v>
       </c>
       <c r="R10">
-        <v>773.8117878534601</v>
+        <v>426.21802840002</v>
       </c>
       <c r="S10">
-        <v>0.02640288911202219</v>
+        <v>0.01241819361643673</v>
       </c>
       <c r="T10">
-        <v>0.02640288911202219</v>
+        <v>0.01241819361643673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N11">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P11">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q11">
-        <v>263.2729314209267</v>
+        <v>38.61111853154</v>
       </c>
       <c r="R11">
-        <v>2369.45638278834</v>
+        <v>347.50006678386</v>
       </c>
       <c r="S11">
-        <v>0.08084717125345871</v>
+        <v>0.01012468460624709</v>
       </c>
       <c r="T11">
-        <v>0.08084717125345871</v>
+        <v>0.01012468460624709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I12">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J12">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N12">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O12">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P12">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q12">
-        <v>625.5541642024334</v>
+        <v>682.6866556237068</v>
       </c>
       <c r="R12">
-        <v>5629.9874778219</v>
+        <v>6144.179900613361</v>
       </c>
       <c r="S12">
-        <v>0.1920983078990717</v>
+        <v>0.1790154581364304</v>
       </c>
       <c r="T12">
-        <v>0.1920983078990717</v>
+        <v>0.1790154581364304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I13">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J13">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N13">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O13">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P13">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q13">
-        <v>70.46259639650002</v>
+        <v>40.78922123726001</v>
       </c>
       <c r="R13">
-        <v>634.1633675685</v>
+        <v>367.1029911353401</v>
       </c>
       <c r="S13">
-        <v>0.02163800724626401</v>
+        <v>0.01069583104732764</v>
       </c>
       <c r="T13">
-        <v>0.02163800724626401</v>
+        <v>0.01069583104732764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H14">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N14">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P14">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q14">
-        <v>25.09372976890933</v>
+        <v>54.35479574308</v>
       </c>
       <c r="R14">
-        <v>225.843567920184</v>
+        <v>489.19316168772</v>
       </c>
       <c r="S14">
-        <v>0.007705908302329058</v>
+        <v>0.01425302308417008</v>
       </c>
       <c r="T14">
-        <v>0.007705908302329059</v>
+        <v>0.01425302308417009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H15">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.897648</v>
       </c>
       <c r="O15">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P15">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q15">
-        <v>94.52503535033954</v>
+        <v>155.6314041768729</v>
       </c>
       <c r="R15">
-        <v>850.7253181530559</v>
+        <v>1400.682637591856</v>
       </c>
       <c r="S15">
-        <v>0.02902722159647247</v>
+        <v>0.04080997759313957</v>
       </c>
       <c r="T15">
-        <v>0.02902722159647248</v>
+        <v>0.04080997759313959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H16">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N16">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P16">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q16">
-        <v>38.25990327356689</v>
+        <v>34.69690441583322</v>
       </c>
       <c r="R16">
-        <v>344.3391294621021</v>
+        <v>312.272139742499</v>
       </c>
       <c r="S16">
-        <v>0.01174904284843983</v>
+        <v>0.00909829156429263</v>
       </c>
       <c r="T16">
-        <v>0.01174904284843983</v>
+        <v>0.009098291564292633</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H17">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I17">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J17">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N17">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P17">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q17">
-        <v>117.1540333701731</v>
+        <v>28.28875316925633</v>
       </c>
       <c r="R17">
-        <v>1054.386300331558</v>
+        <v>254.598778523307</v>
       </c>
       <c r="S17">
-        <v>0.03597624772053926</v>
+        <v>0.007417933347585655</v>
       </c>
       <c r="T17">
-        <v>0.03597624772053926</v>
+        <v>0.007417933347585659</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H18">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I18">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J18">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N18">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O18">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P18">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q18">
-        <v>278.3658503450588</v>
+        <v>500.1759862799258</v>
       </c>
       <c r="R18">
-        <v>2505.29265310553</v>
+        <v>4501.583876519332</v>
       </c>
       <c r="S18">
-        <v>0.085481980439455</v>
+        <v>0.1311571459543738</v>
       </c>
       <c r="T18">
-        <v>0.08548198043945501</v>
+        <v>0.1311571459543738</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H19">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I19">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J19">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N19">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O19">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P19">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q19">
-        <v>31.35520740788333</v>
+        <v>29.88455800897033</v>
       </c>
       <c r="R19">
-        <v>282.19686667095</v>
+        <v>268.961022080733</v>
       </c>
       <c r="S19">
-        <v>0.00962871423701314</v>
+        <v>0.007836388479415854</v>
       </c>
       <c r="T19">
-        <v>0.009628714237013144</v>
+        <v>0.007836388479415856</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H20">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N20">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P20">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q20">
-        <v>10.03081442089867</v>
+        <v>14.5393129644</v>
       </c>
       <c r="R20">
-        <v>90.277329788088</v>
+        <v>130.8538166796</v>
       </c>
       <c r="S20">
-        <v>0.00308031276486025</v>
+        <v>0.003812527679969237</v>
       </c>
       <c r="T20">
-        <v>0.003080312764860251</v>
+        <v>0.003812527679969238</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H21">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.897648</v>
       </c>
       <c r="O21">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P21">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q21">
-        <v>37.78486085806578</v>
+        <v>41.62969727845334</v>
       </c>
       <c r="R21">
-        <v>340.063747722592</v>
+        <v>374.66727550608</v>
       </c>
       <c r="S21">
-        <v>0.01160316444266756</v>
+        <v>0.01091622235324742</v>
       </c>
       <c r="T21">
-        <v>0.01160316444266757</v>
+        <v>0.01091622235324743</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H22">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I22">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J22">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N22">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P22">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q22">
-        <v>15.29378028029045</v>
+        <v>9.281042184063335</v>
       </c>
       <c r="R22">
-        <v>137.644022522614</v>
+        <v>83.52937965657001</v>
       </c>
       <c r="S22">
-        <v>0.004696490697923415</v>
+        <v>0.002433693415386482</v>
       </c>
       <c r="T22">
-        <v>0.004696490697923415</v>
+        <v>0.002433693415386483</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H23">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I23">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J23">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N23">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P23">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q23">
-        <v>46.83043844888955</v>
+        <v>7.56693186089</v>
       </c>
       <c r="R23">
-        <v>421.473946040006</v>
+        <v>68.10238674801001</v>
       </c>
       <c r="S23">
-        <v>0.01438092574393307</v>
+        <v>0.001984215983432115</v>
       </c>
       <c r="T23">
-        <v>0.01438092574393307</v>
+        <v>0.001984215983432116</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H24">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I24">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J24">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N24">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O24">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P24">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q24">
-        <v>111.2722664841344</v>
+        <v>133.7916020543067</v>
       </c>
       <c r="R24">
-        <v>1001.45039835721</v>
+        <v>1204.12441848876</v>
       </c>
       <c r="S24">
-        <v>0.03417004526690299</v>
+        <v>0.0350831010673222</v>
       </c>
       <c r="T24">
-        <v>0.03417004526690299</v>
+        <v>0.03508310106732221</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H25">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I25">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J25">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N25">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O25">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P25">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q25">
-        <v>12.53373928601667</v>
+        <v>7.993792189910002</v>
       </c>
       <c r="R25">
-        <v>112.80365357415</v>
+        <v>71.94412970919001</v>
       </c>
       <c r="S25">
-        <v>0.003848923476613242</v>
+        <v>0.002096148151331266</v>
       </c>
       <c r="T25">
-        <v>0.003848923476613243</v>
+        <v>0.002096148151331267</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H26">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N26">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P26">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q26">
-        <v>18.19434564345866</v>
+        <v>28.45346629188001</v>
       </c>
       <c r="R26">
-        <v>163.749110791128</v>
+        <v>256.08119662692</v>
       </c>
       <c r="S26">
-        <v>0.005587210846714495</v>
+        <v>0.007461124751525755</v>
       </c>
       <c r="T26">
-        <v>0.005587210846714496</v>
+        <v>0.007461124751525758</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H27">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I27">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J27">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.897648</v>
       </c>
       <c r="O27">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P27">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q27">
-        <v>68.53589247043909</v>
+        <v>81.46940582089067</v>
       </c>
       <c r="R27">
-        <v>616.8230322339519</v>
+        <v>733.2246523880161</v>
       </c>
       <c r="S27">
-        <v>0.02104634534838393</v>
+        <v>0.02136307028559863</v>
       </c>
       <c r="T27">
-        <v>0.02104634534838393</v>
+        <v>0.02136307028559864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H28">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I28">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J28">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N28">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P28">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q28">
-        <v>27.74055155830378</v>
+        <v>18.16301922823767</v>
       </c>
       <c r="R28">
-        <v>249.664964024734</v>
+        <v>163.467173054139</v>
       </c>
       <c r="S28">
-        <v>0.008518707602772254</v>
+        <v>0.00476274317287366</v>
       </c>
       <c r="T28">
-        <v>0.008518707602772254</v>
+        <v>0.004762743172873661</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H29">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I29">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J29">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N29">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P29">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q29">
-        <v>84.94317091527621</v>
+        <v>14.808501692203</v>
       </c>
       <c r="R29">
-        <v>764.4885382374858</v>
+        <v>133.276515229827</v>
       </c>
       <c r="S29">
-        <v>0.02608477464331254</v>
+        <v>0.003883114885733191</v>
       </c>
       <c r="T29">
-        <v>0.02608477464331254</v>
+        <v>0.003883114885733193</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H30">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I30">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J30">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N30">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O30">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P30">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q30">
-        <v>201.8306781476678</v>
+        <v>261.8304488327614</v>
       </c>
       <c r="R30">
-        <v>1816.47610332901</v>
+        <v>2356.474039494852</v>
       </c>
       <c r="S30">
-        <v>0.06197917618168467</v>
+        <v>0.06865770315818125</v>
       </c>
       <c r="T30">
-        <v>0.06197917618168468</v>
+        <v>0.06865770315818127</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H31">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I31">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J31">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N31">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O31">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P31">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q31">
-        <v>22.73426415901666</v>
+        <v>15.643868260957</v>
       </c>
       <c r="R31">
-        <v>204.60837743115</v>
+        <v>140.794814348613</v>
       </c>
       <c r="S31">
-        <v>0.006981351777660543</v>
+        <v>0.004102166375586514</v>
       </c>
       <c r="T31">
-        <v>0.006981351777660544</v>
+        <v>0.004102166375586516</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H32">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I32">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J32">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.167924</v>
+        <v>0.22092</v>
       </c>
       <c r="N32">
-        <v>0.503772</v>
+        <v>0.66276</v>
       </c>
       <c r="O32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940421</v>
       </c>
       <c r="P32">
-        <v>0.04291332780772943</v>
+        <v>0.06768692722940423</v>
       </c>
       <c r="Q32">
-        <v>22.257476000788</v>
+        <v>60.3430527476</v>
       </c>
       <c r="R32">
-        <v>200.317284007092</v>
+        <v>543.0874747284</v>
       </c>
       <c r="S32">
-        <v>0.006834937280462181</v>
+        <v>0.01582327579421237</v>
       </c>
       <c r="T32">
-        <v>0.006834937280462181</v>
+        <v>0.01582327579421238</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H33">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I33">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J33">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.897648</v>
       </c>
       <c r="O33">
-        <v>0.1616492990632312</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="P33">
-        <v>0.1616492990632313</v>
+        <v>0.193804638305004</v>
       </c>
       <c r="Q33">
-        <v>83.84121153605867</v>
+        <v>172.7772849302578</v>
       </c>
       <c r="R33">
-        <v>754.570903824528</v>
+        <v>1554.99556437232</v>
       </c>
       <c r="S33">
-        <v>0.02574637943433636</v>
+        <v>0.04530600468395124</v>
       </c>
       <c r="T33">
-        <v>0.02574637943433636</v>
+        <v>0.04530600468395125</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H34">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I34">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J34">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2545,28 +2545,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.2560303333333334</v>
+        <v>0.1410223333333333</v>
       </c>
       <c r="N34">
-        <v>0.7680910000000001</v>
+        <v>0.423067</v>
       </c>
       <c r="O34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153955</v>
       </c>
       <c r="P34">
-        <v>0.06542908472318174</v>
+        <v>0.04320735295153956</v>
       </c>
       <c r="Q34">
-        <v>33.93552440175567</v>
+        <v>38.51945545411444</v>
       </c>
       <c r="R34">
-        <v>305.4197196158011</v>
+        <v>346.67509908703</v>
       </c>
       <c r="S34">
-        <v>0.01042109091153831</v>
+        <v>0.01010064853103695</v>
       </c>
       <c r="T34">
-        <v>0.01042109091153831</v>
+        <v>0.01010064853103695</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H35">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I35">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J35">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.7839796666666666</v>
+        <v>0.114977</v>
       </c>
       <c r="N35">
-        <v>2.351939</v>
+        <v>0.344931</v>
       </c>
       <c r="O35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785264</v>
       </c>
       <c r="P35">
-        <v>0.200347636015466</v>
+        <v>0.03522741187785266</v>
       </c>
       <c r="Q35">
-        <v>103.9125355276143</v>
+        <v>31.40531946297666</v>
       </c>
       <c r="R35">
-        <v>935.212819748529</v>
+        <v>282.64787516679</v>
       </c>
       <c r="S35">
-        <v>0.03190998219923485</v>
+        <v>0.008235165584787053</v>
       </c>
       <c r="T35">
-        <v>0.03190998219923485</v>
+        <v>0.008235165584787058</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H36">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I36">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J36">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.862788333333333</v>
+        <v>2.032918666666667</v>
       </c>
       <c r="N36">
-        <v>5.588365</v>
+        <v>6.098756</v>
       </c>
       <c r="O36">
-        <v>0.476039436797285</v>
+        <v>0.6228590342837411</v>
       </c>
       <c r="P36">
-        <v>0.4760394367972851</v>
+        <v>0.6228590342837412</v>
       </c>
       <c r="Q36">
-        <v>246.9031622860017</v>
+        <v>555.2802749151156</v>
       </c>
       <c r="R36">
-        <v>2222.128460574015</v>
+        <v>4997.52247423604</v>
       </c>
       <c r="S36">
-        <v>0.07582026050540727</v>
+        <v>0.1456067025614211</v>
       </c>
       <c r="T36">
-        <v>0.07582026050540729</v>
+        <v>0.1456067025614212</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H37">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I37">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J37">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.209825</v>
+        <v>0.121463</v>
       </c>
       <c r="N37">
-        <v>0.629475</v>
+        <v>0.364389</v>
       </c>
       <c r="O37">
-        <v>0.05362121559310657</v>
+        <v>0.03721463535245846</v>
       </c>
       <c r="P37">
-        <v>0.05362121559310658</v>
+        <v>0.03721463535245847</v>
       </c>
       <c r="Q37">
-        <v>27.811241406025</v>
+        <v>33.17693380355666</v>
       </c>
       <c r="R37">
-        <v>250.301172654225</v>
+        <v>298.59240423201</v>
       </c>
       <c r="S37">
-        <v>0.008540415395494255</v>
+        <v>0.008699721835019091</v>
       </c>
       <c r="T37">
-        <v>0.008540415395494256</v>
+        <v>0.008699721835019094</v>
       </c>
     </row>
   </sheetData>
